--- a/_Gtex/GteX_teamMeating_DB.xlsx
+++ b/_Gtex/GteX_teamMeating_DB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daisuke/Library/Mobile Documents/com~apple~CloudDocs/labo/Github_macbook/LIS_code/_Gtex/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B12FEF4-9E1B-194D-B05B-6665BFD3691B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1712D24E-9B1D-4C4C-9294-0A8C8E795740}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="860" windowWidth="34200" windowHeight="21380" xr2:uid="{116D3FDB-937C-F44F-9352-EE80F224C98E}"/>
   </bookViews>
@@ -713,8 +713,8 @@
   <dimension ref="A1:Q115"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="131" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E54" sqref="E54"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
